--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1033440.510371343</v>
+        <v>1027578.190336164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10121174.06933239</v>
+        <v>10119994.11055155</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>364.736739899095</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739813</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056051</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.9893010461506</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
-        <v>139.3663780557825</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.074758615768</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>120.8975529654838</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579075</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>167.0536582330029</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>146.8340739597078</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -1373,13 +1373,13 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>281.7379577306269</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>319.8444572927816</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>40.78297506860832</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>181.3675001906306</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>148.7141200837578</v>
+        <v>171.1886243209707</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362793</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901679</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>11.44989972047031</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>93.16084888546074</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875279</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574983</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564995</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167827</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196068</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380041</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667952</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644679</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883892</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541096</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658289</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038813</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656613</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697377</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
         <v>208.3257718879325</v>
@@ -3329,10 +3329,10 @@
         <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357251</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708617</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369185</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927763</v>
       </c>
       <c r="T44" t="n">
         <v>90.90562710059311</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350.846741876928</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>957.6712403798585</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>572.2301115965263</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1568.259363687036</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2012.380333804333</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.79005602327</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.79005602327</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.79005602327</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1747.337450956327</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1350.846741876928</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021433</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622355</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837159</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946036</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777354</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777354</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>158.7695259828349</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653866</v>
+        <v>642.3356118811481</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653866</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D4" t="n">
-        <v>524.6344602231339</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823364</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="W4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.288224026351</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.112722529282</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>995.6715937459496</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>995.6715937459496</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>578.7771552759274</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>165.6143997639305</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="Y5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.64974772626</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127957</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>640.1767275127957</v>
+        <v>874.8450714282529</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>843.5857067984603</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>688.0268946576628</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
         <v>598.8128425210757</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.907436154955</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2196.907436154955</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2196.907436154955</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2196.907436154955</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2196.907436154955</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2196.907436154955</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>564.7236943873829</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
         <v>470.0264498312598</v>
@@ -5036,55 +5036,55 @@
         <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.23910529302</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.53477799863</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429135</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.683993741633</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.9602217740421</v>
+        <v>103.314052015841</v>
       </c>
       <c r="C13" t="n">
-        <v>411.5513789862251</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5513789862251</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027735</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.712833143251</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.070316531345</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>957.8872464983635</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W13" t="n">
-        <v>774.6877513563122</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X13" t="n">
-        <v>774.6877513563122</v>
+        <v>368.0415815981111</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.3719653191495</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.720122418849</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>965.3408960679735</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>965.3408960679735</v>
+        <v>828.6901857016489</v>
       </c>
       <c r="E14" t="n">
-        <v>815.124613155088</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312597</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723525</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838006</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>1940.113026917257</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1615.418592984052</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.4958349961662</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0869922083493</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083493</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083493</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675163</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1433.062372320076</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1269.139595634504</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1055.497079022599</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>861.3140089896174</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>649.779882066989</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X16" t="n">
-        <v>487.4958349961662</v>
+        <v>368.0415815981111</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.4958349961662</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924207</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6060,19 +6060,19 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411555</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411555</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411555</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
         <v>568.1699486069232</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938484</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6303,22 +6303,22 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796863</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,25 +6534,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2404.684126952454</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.76193631596</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1641.745733631588</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929716</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404861</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.671358424526</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652538</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.73045008374194</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927170966</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>389.5437325908964</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>575.8353109291604</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777498</v>
+        <v>870.6770655353525</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250183</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273678</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400707</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045791</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027477</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924238</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129464</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404082</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358937</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403518</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.88373204098</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933308</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.11082506483</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.21970818807</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411557</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885603</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072698</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462933</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031230109</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.533811422243</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960427</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343068</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665516</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O37" t="n">
-        <v>845.847430707224</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838026</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918822</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161915</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194241</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330101</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984015</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7157,34 +7157,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924207</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7199,16 +7199,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,7 +7339,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
@@ -7354,28 +7354,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7412,16 +7412,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,28 +7430,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>223.7967200283817</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102065</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>93.79016463310008</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638921</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376801</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913378</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>467.2907990790995</v>
+        <v>132.5722416498157</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>603.2495781888792</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9951,25 +9951,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,10 +10200,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,16 +10431,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684378</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10677,10 +10677,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,10 +11148,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14.47277455603662</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091332</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133042</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>28.05128546277163</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>178.7652571561311</v>
+        <v>156.2907529189183</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177839</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.2597108640738</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>56.64177929133039</v>
       </c>
     </row>
     <row r="17">
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.924355041892013e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>887333.8579779686</v>
+        <v>886732.3103642083</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>887333.8579779686</v>
+        <v>886732.3103642083</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790731.8984214358</v>
+        <v>790731.898421436</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>891403.0408324258</v>
+        <v>891403.0408324259</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.791805385</v>
       </c>
       <c r="C2" t="n">
-        <v>396730.7918053847</v>
+        <v>396730.791805385</v>
       </c>
       <c r="D2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="E2" t="n">
-        <v>350589.8515336814</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="F2" t="n">
-        <v>350589.8515336817</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="G2" t="n">
-        <v>396730.7918053851</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="H2" t="n">
         <v>396730.7918053849</v>
@@ -26335,19 +26335,19 @@
         <v>396730.791805385</v>
       </c>
       <c r="J2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.791805385</v>
       </c>
       <c r="K2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053853</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.7918053853</v>
+        <v>396730.7918053857</v>
       </c>
       <c r="M2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="N2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="O2" t="n">
         <v>396730.7918053849</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277131</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805109</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26436,7 +26436,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640163</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544781</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996331</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.0196998405</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551969</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41103.96398065155</v>
+        <v>-37354.06578011689</v>
       </c>
       <c r="C6" t="n">
-        <v>141100.9843112043</v>
+        <v>136504.5912539382</v>
       </c>
       <c r="D6" t="n">
-        <v>135085.1826534312</v>
+        <v>127348.8934300395</v>
       </c>
       <c r="E6" t="n">
-        <v>85388.18885174546</v>
+        <v>85178.45730505568</v>
       </c>
       <c r="F6" t="n">
-        <v>197510.75032579</v>
+        <v>197301.0187791002</v>
       </c>
       <c r="G6" t="n">
-        <v>143483.6989535503</v>
+        <v>143483.6989535501</v>
       </c>
       <c r="H6" t="n">
         <v>190909.024490232</v>
@@ -26543,22 +26543,22 @@
         <v>190909.0244902321</v>
       </c>
       <c r="J6" t="n">
-        <v>-22132.89310705347</v>
+        <v>-15616.60795248006</v>
       </c>
       <c r="K6" t="n">
-        <v>184669.2560874491</v>
+        <v>184669.2560874494</v>
       </c>
       <c r="L6" t="n">
-        <v>129486.6671528284</v>
+        <v>125437.8299423565</v>
       </c>
       <c r="M6" t="n">
-        <v>148708.1950306091</v>
+        <v>147656.5000194209</v>
       </c>
       <c r="N6" t="n">
-        <v>190909.0244902321</v>
+        <v>190909.0244902319</v>
       </c>
       <c r="O6" t="n">
-        <v>163141.3304474606</v>
+        <v>163141.3304474608</v>
       </c>
       <c r="P6" t="n">
         <v>190909.0244902319</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155843</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014446</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287436</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346414</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321488</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321488</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>33.82094973552591</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295355</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094664</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925448</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27588,13 +27588,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
-        <v>123.9531736716015</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.1689878663306</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>199.9446669636905</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682698</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493797</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27853,16 +27853,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>54.2119381831746</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>135.7503298808103</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>130.3599693155844</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28983,13 +28983,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29220,22 +29220,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599493</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901124</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159795</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566466</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>76.7938545503128</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861253986</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.7104901066899</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082783</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082768</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,17 +30876,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>74.23288260428528</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928127</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.193229299766723</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069739</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135837</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>381.9186862249329</v>
+        <v>47.20012879564902</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>450.0014084583875</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111493</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>318.5332807683764</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36136,10 +36136,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133958</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877746</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272222</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765091</v>
       </c>
       <c r="O32" t="n">
-        <v>530.757357311451</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273768</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>159.4555122371228</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>139.801504750498</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260917</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634530832</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257367</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529554</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634527946</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
